--- a/biology/Mycologie/Ramaire/Ramaire.xlsx
+++ b/biology/Mycologie/Ramaire/Ramaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramaire est un nom français ambigu qui peut s'appliquer à des champignons appartenant à des familles différentes. 
 Le terme recouvrait jadis les espèces du genre Ramaria, proche des clavaires. Dans ce groupe, les clavaires étaient, comme leur nom l'indique, les champignons en forme de clé, ou plus exactement de pilon, tandis que les ramaires étaient ceux en forme de petits rameaux, encore qu'on retrouvait parfois indifféremment l'un ou l'autre nom (clavaire étant antérieur et plus courant). 
